--- a/MEDIA/_2171_002_會計科目餘額明細.xlsx
+++ b/MEDIA/_2171_002_會計科目餘額明細.xlsx
@@ -356,7 +356,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>森邦(股)會計科目餘額明細(_2171_002_2020-09-01~2020-10-29)</t>
+          <t>森邦(股)會計科目餘額明細(_2171_002_2020-10-31~2020-12-02)</t>
         </is>
       </c>
     </row>
@@ -419,7 +419,7 @@
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="n">
-        <v>2355507</v>
+        <v>1225702</v>
       </c>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
@@ -427,7 +427,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>20200901</t>
+          <t>20201031</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -442,21 +442,21 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>轉帳扣繳退休金-06月份                  </t>
+          <t>(預估)10月退休金                    </t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>308622</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-317428</v>
       </c>
       <c r="G4" t="n">
-        <v>2046885</v>
+        <v>1543130</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>109580</t>
+          <t>110950</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -468,7 +468,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>20200901</t>
+          <t>20201031</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -483,21 +483,21 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>轉帳扣繳勞保費-07月份                  </t>
+          <t>(預估)10月勞保費                    </t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>439750</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>-350692</v>
       </c>
       <c r="G5" t="n">
-        <v>1607135</v>
+        <v>1893822</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>109580</t>
+          <t>110950</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -509,7 +509,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>20200901</t>
+          <t>20201031</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -524,21 +524,21 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>轉帳扣繳退休金（自提）-06月份              </t>
+          <t>(預估)10月健保費                    </t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>32070</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>-237900</v>
       </c>
       <c r="G6" t="n">
-        <v>1575065</v>
+        <v>2131722</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>109580</t>
+          <t>110950</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -550,7 +550,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>20200915</t>
+          <t>20201031</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -565,21 +565,21 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>轉帳扣繳07月健保費                    </t>
+          <t>沖#109614(預估)9月份:勞保費           </t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>346893</v>
+        <v>343090</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1228172</v>
+        <v>1788632</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>109581</t>
+          <t>110988</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -591,7 +591,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>20200930</t>
+          <t>20201031</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -606,21 +606,21 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>沖#108631-(預估)8月份:健保費          </t>
+          <t>9月份:勞保費                       </t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>231431</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>-438467</v>
       </c>
       <c r="G8" t="n">
-        <v>996741</v>
+        <v>2227099</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>109622</t>
+          <t>110988</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -632,7 +632,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>20200930</t>
+          <t>20201031</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -647,21 +647,21 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>8月份:健保費                       </t>
+          <t>沖#109614(預估)9月份:健保費           </t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>233409</v>
       </c>
       <c r="F9" t="n">
-        <v>-343236</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1339977</v>
+        <v>1993690</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>109622</t>
+          <t>110988</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -673,7 +673,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>20200930</t>
+          <t>20201031</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -688,21 +688,21 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>8月份:退休金-自提勞退                  </t>
+          <t>9月份:健保費                       </t>
         </is>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>-30072</v>
+        <v>-356661</v>
       </c>
       <c r="G10" t="n">
-        <v>1370049</v>
+        <v>2350351</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>109622</t>
+          <t>110988</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -714,7 +714,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>20200930</t>
+          <t>20201031</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -729,21 +729,21 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>沖#108631-(預估)8月份:退休金          </t>
+          <t>9月份:退休金(自提勞退)                 </t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>311191</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>-30072</v>
       </c>
       <c r="G11" t="n">
-        <v>1058858</v>
+        <v>2380423</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>109622</t>
+          <t>110988</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -755,7 +755,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>20200930</t>
+          <t>20201031</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -770,21 +770,21 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>8月份:退休金                       </t>
+          <t>9月份:退休金                       </t>
         </is>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>-307511</v>
+        <v>-311620</v>
       </c>
       <c r="G12" t="n">
-        <v>1366369</v>
+        <v>2692043</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>109622</t>
+          <t>110988</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -796,7 +796,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>20200930</t>
+          <t>20201031</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -811,21 +811,21 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>8月份:勞保費                       </t>
+          <t>沖#109614(預估)9月份:退休金           </t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>311620</v>
       </c>
       <c r="F13" t="n">
-        <v>-429513</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1795882</v>
+        <v>2380423</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>109622</t>
+          <t>110988</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -837,7 +837,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>20200930</t>
+          <t>20201103</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -852,21 +852,21 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>(預估)9月份:健保費                   </t>
+          <t>轉帳扣繳勞保費-09月份                  </t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>438467</v>
       </c>
       <c r="F14" t="n">
-        <v>-233409</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2029291</v>
+        <v>1941956</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>109614</t>
+          <t>112190</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -878,7 +878,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>20200930</t>
+          <t>20201103</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -893,21 +893,21 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>(預估)9月份:勞保費                   </t>
+          <t>轉帳扣繳退休金（自提）-08月份              </t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>30072</v>
       </c>
       <c r="F15" t="n">
-        <v>-343090</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2372381</v>
+        <v>1911884</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>109614</t>
+          <t>112190</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -919,7 +919,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>20200930</t>
+          <t>20201103</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -934,21 +934,21 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>(預估)9月份:退休金                   </t>
+          <t>轉帳扣繳退休金-08月份                  </t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>307511</v>
       </c>
       <c r="F16" t="n">
-        <v>-311620</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2684001</v>
+        <v>1604373</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>109614</t>
+          <t>112190</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -960,7 +960,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>20200930</t>
+          <t>20201116</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -975,21 +975,21 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>沖#108631-(預估)8月份:勞保費          </t>
+          <t>轉帳扣繳09月健保費                    </t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>338542</v>
+        <v>356661</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>2345459</v>
+        <v>1247712</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>109622</t>
+          <t>112191</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
